--- a/database/industries/kashi/kehafez/eps.xlsx
+++ b/database/industries/kashi/kehafez/eps.xlsx
@@ -493,7 +493,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>-636</v>
+        <v>636</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>-1020</v>
+        <v>1020</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>-1868</v>
+        <v>1868</v>
       </c>
       <c r="D6">
         <v>0</v>
